--- a/Data_preparation/datasets/final_data/TIETOEVRY_OYJ.xlsx
+++ b/Data_preparation/datasets/final_data/TIETOEVRY_OYJ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="46">
   <si>
     <t>Ticker</t>
   </si>
@@ -148,70 +148,7 @@
     <t>USD</t>
   </si>
   <si>
-    <t>2337 TT</t>
-  </si>
-  <si>
-    <t>005930 KS</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>XRO AU</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>2353 TT</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
     <t>TIETO FH</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>3690 HK</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
   </si>
   <si>
     <t>EUR</t>
@@ -721,19 +658,19 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>13.19506057834629</v>
+        <v>14.32398081758688</v>
       </c>
       <c r="E2">
-        <v>13.02006114768982</v>
+        <v>14.02311240768433</v>
       </c>
       <c r="F2">
-        <v>13.47506251467241</v>
+        <v>14.80798733407771</v>
       </c>
       <c r="G2">
-        <v>12.49505783111611</v>
+        <v>13.40829277969813</v>
       </c>
       <c r="H2">
-        <v>1853869000</v>
+        <v>118401578</v>
       </c>
       <c r="I2" t="s">
         <v>44</v>
@@ -823,7 +760,7 @@
         <v>115700</v>
       </c>
       <c r="AL2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM2">
         <v>-0.6807712280957691</v>
@@ -849,22 +786,22 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>22799.20300311841</v>
+        <v>13.73532298396108</v>
       </c>
       <c r="E3">
-        <v>21306.82615039063</v>
+        <v>15.23966738319397</v>
       </c>
       <c r="F3">
-        <v>23572.36209549545</v>
+        <v>15.69751198166981</v>
       </c>
       <c r="G3">
-        <v>21127.02171030295</v>
+        <v>13.36250727400061</v>
       </c>
       <c r="H3">
-        <v>5876745450</v>
+        <v>118401578</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>1756499550</v>
@@ -951,7 +888,7 @@
         <v>347100</v>
       </c>
       <c r="AL3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM3">
         <v>5.016674333026679</v>
@@ -977,22 +914,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>872.6184122529871</v>
+        <v>14.78836534261213</v>
       </c>
       <c r="E4">
-        <v>873.1955408325196</v>
+        <v>15.25929026985168</v>
       </c>
       <c r="F4">
-        <v>888.7780124798943</v>
+        <v>15.82832564851825</v>
       </c>
       <c r="G4">
-        <v>841.8343935468035</v>
+        <v>14.38938649955251</v>
       </c>
       <c r="H4">
-        <v>104878138</v>
+        <v>118401578</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>1933254440</v>
@@ -1073,7 +1010,7 @@
         <v>347100</v>
       </c>
       <c r="AL4" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1093,22 +1030,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>31.383625</v>
+        <v>16.16843803959506</v>
       </c>
       <c r="E5">
-        <v>29.32416420555115</v>
+        <v>16.18151959991455</v>
       </c>
       <c r="F5">
-        <v>31.383625</v>
+        <v>16.22076303334677</v>
       </c>
       <c r="G5">
-        <v>25.72010947036743</v>
+        <v>14.64447119310932</v>
       </c>
       <c r="H5">
-        <v>134598631</v>
+        <v>118401578</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>2102562725.64624</v>
@@ -1195,7 +1132,7 @@
         <v>347100</v>
       </c>
       <c r="AL5" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM5">
         <v>3.201327100511448</v>
@@ -1221,22 +1158,22 @@
         <v>42460</v>
       </c>
       <c r="D6">
-        <v>12.95815170700547</v>
+        <v>15.75413153153726</v>
       </c>
       <c r="E6">
-        <v>13.08984023857117</v>
+        <v>15.892751786232</v>
       </c>
       <c r="F6">
-        <v>13.69033962100555</v>
+        <v>17.43836141276886</v>
       </c>
       <c r="G6">
-        <v>12.71057662465155</v>
+        <v>15.43530679651239</v>
       </c>
       <c r="H6">
-        <v>1299391231</v>
+        <v>118401578</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>1950719915.2194</v>
@@ -1323,7 +1260,7 @@
         <v>809900</v>
       </c>
       <c r="AL6" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM6">
         <v>13.83867182309776</v>
@@ -1349,22 +1286,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>20.23592973518372</v>
+        <v>17.0710186927257</v>
       </c>
       <c r="E7">
-        <v>21.67060947036743</v>
+        <v>17.84035859584808</v>
       </c>
       <c r="F7">
-        <v>21.83259097099304</v>
+        <v>19.57310517262409</v>
       </c>
       <c r="G7">
-        <v>19.43759911727905</v>
+        <v>16.68288382968248</v>
       </c>
       <c r="H7">
-        <v>168262866</v>
+        <v>118401578</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <v>2082137190.53574</v>
@@ -1451,7 +1388,7 @@
         <v>-231400</v>
       </c>
       <c r="AL7" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM7">
         <v>0.4957575735041322</v>
@@ -1477,22 +1414,22 @@
         <v>42643</v>
       </c>
       <c r="D8">
-        <v>10.05616809421494</v>
+        <v>19.47607374907484</v>
       </c>
       <c r="E8">
-        <v>10.42982245445251</v>
+        <v>17.32053636741638</v>
       </c>
       <c r="F8">
-        <v>10.91719712313344</v>
+        <v>19.6840028304392</v>
       </c>
       <c r="G8">
-        <v>9.639191564158663</v>
+        <v>16.8908159134018</v>
       </c>
       <c r="H8">
-        <v>219937482</v>
+        <v>118401578</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>2398836250.2728</v>
@@ -1579,7 +1516,7 @@
         <v>694200</v>
       </c>
       <c r="AL8" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM8">
         <v>-2.53153153894994</v>
@@ -1605,22 +1542,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>618.9570490869983</v>
+        <v>18.08294309759722</v>
       </c>
       <c r="E9">
-        <v>521.1219026184082</v>
+        <v>17.78491047954559</v>
       </c>
       <c r="F9">
-        <v>660.8863975735369</v>
+        <v>18.63049031984731</v>
       </c>
       <c r="G9">
-        <v>515.1319956917598</v>
+        <v>17.45915460413001</v>
       </c>
       <c r="H9">
-        <v>1333460157</v>
+        <v>118401578</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>2210148853.6608</v>
@@ -1707,7 +1644,7 @@
         <v>231400</v>
       </c>
       <c r="AL9" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM9">
         <v>-6.561912643450732</v>
@@ -1733,22 +1670,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>11.30339678918528</v>
+        <v>18.64878877371384</v>
       </c>
       <c r="E10">
-        <v>11.18565336894989</v>
+        <v>21.06947429847718</v>
       </c>
       <c r="F10">
-        <v>11.53888437825048</v>
+        <v>21.32543834493789</v>
       </c>
       <c r="G10">
-        <v>10.8716704159259</v>
+        <v>18.29043966662557</v>
       </c>
       <c r="H10">
-        <v>3006208000</v>
+        <v>118401578</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>2177582037.29313</v>
@@ -1835,7 +1772,7 @@
         <v>462800</v>
       </c>
       <c r="AL10" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM10">
         <v>-1.241595814175972</v>
@@ -1861,22 +1798,22 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>930.7952226609096</v>
+        <v>19.81891503792872</v>
       </c>
       <c r="E11">
-        <v>917.9634751586914</v>
+        <v>19.59951662063599</v>
       </c>
       <c r="F11">
-        <v>1012.720995175073</v>
+        <v>20.82814329382009</v>
       </c>
       <c r="G11">
-        <v>866.6364851498182</v>
+        <v>19.07296292993948</v>
       </c>
       <c r="H11">
-        <v>275900103</v>
+        <v>118401578</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>2309617306.65406</v>
@@ -1963,7 +1900,7 @@
         <v>694200</v>
       </c>
       <c r="AL11" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM11">
         <v>-1.56840211223098</v>
@@ -2004,7 +1941,7 @@
         <v>118401578</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>2199758744.29259</v>
@@ -2091,7 +2028,7 @@
         <v>578500</v>
       </c>
       <c r="AL12" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM12">
         <v>0.5697083537902791</v>
@@ -2117,22 +2054,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>24.36754608677801</v>
+        <v>18.99982943048439</v>
       </c>
       <c r="E13">
-        <v>24.98113742256164</v>
+        <v>20.47710675239563</v>
       </c>
       <c r="F13">
-        <v>27.21140574230897</v>
+        <v>20.95978129996786</v>
       </c>
       <c r="G13">
-        <v>24.0207352740224</v>
+        <v>18.89744434308791</v>
       </c>
       <c r="H13">
-        <v>1299391231</v>
+        <v>118401578</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>2216033093.1375</v>
@@ -2219,7 +2156,7 @@
         <v>462800</v>
       </c>
       <c r="AL13" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM13">
         <v>1.496289201166328</v>
@@ -2245,22 +2182,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>18.45757314406327</v>
+        <v>20.83269600305012</v>
       </c>
       <c r="E14">
-        <v>17.1458679599762</v>
+        <v>22.87903899955749</v>
       </c>
       <c r="F14">
-        <v>18.83234656884871</v>
+        <v>23.43293585553157</v>
       </c>
       <c r="G14">
-        <v>15.55308270730004</v>
+        <v>20.32495685157548</v>
       </c>
       <c r="H14">
-        <v>4500000193</v>
+        <v>118401578</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J14">
         <v>2310470508.46664</v>
@@ -2347,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM14">
         <v>0.1933317321846447</v>
@@ -2373,19 +2310,19 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>37.44873108618253</v>
+        <v>21.29427755813779</v>
       </c>
       <c r="E15">
-        <v>36.58783875274658</v>
+        <v>20.4942028503418</v>
       </c>
       <c r="F15">
-        <v>38.56788810488639</v>
+        <v>21.98664899845235</v>
       </c>
       <c r="G15">
-        <v>34.73692509297725</v>
+        <v>19.63258551445208</v>
       </c>
       <c r="H15">
-        <v>1853869000</v>
+        <v>118401578</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -2475,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM15">
         <v>1.16197179196219</v>
@@ -2501,22 +2438,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>137.5325650948199</v>
+        <v>20.60190683859835</v>
       </c>
       <c r="E16">
-        <v>152.3011590118408</v>
+        <v>21.89433288764954</v>
       </c>
       <c r="F16">
-        <v>159.2239383115644</v>
+        <v>21.97126337644863</v>
       </c>
       <c r="G16">
-        <v>113.9951140339675</v>
+        <v>18.49401966253465</v>
       </c>
       <c r="H16">
-        <v>193969420</v>
+        <v>118401578</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J16">
         <v>2273802823.80966</v>
@@ -2603,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM16">
         <v>-6.848350374885005</v>
@@ -2629,22 +2566,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>206.7603717690826</v>
+        <v>18.14014024894807</v>
       </c>
       <c r="E17">
-        <v>165.2236817016602</v>
+        <v>19.24793548774719</v>
       </c>
       <c r="F17">
-        <v>209.9909953690139</v>
+        <v>19.678744176653</v>
       </c>
       <c r="G17">
-        <v>165.2236817016602</v>
+        <v>18.09398254196849</v>
       </c>
       <c r="H17">
-        <v>193969420</v>
+        <v>118401578</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>2044885033.88442</v>
@@ -2731,7 +2668,7 @@
         <v>8330400</v>
       </c>
       <c r="AL17" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM17">
         <v>-3.10288412054073</v>
@@ -2757,22 +2694,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>1268.310006023214</v>
+        <v>22.19677371616087</v>
       </c>
       <c r="E18">
-        <v>1394.216919189453</v>
+        <v>20.52674656486511</v>
       </c>
       <c r="F18">
-        <v>1498.176755748733</v>
+        <v>23.12096478998066</v>
       </c>
       <c r="G18">
-        <v>1197.848339021925</v>
+        <v>20.36460889221676</v>
       </c>
       <c r="H18">
-        <v>104878138</v>
+        <v>118401578</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>2339420921.11546</v>
@@ -2859,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM18">
         <v>-1.911938579740502</v>
@@ -2885,22 +2822,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>46909.52164104707</v>
+        <v>21.14286952036283</v>
       </c>
       <c r="E19">
-        <v>44928.1268515625</v>
+        <v>18.71079096412659</v>
       </c>
       <c r="F19">
-        <v>47107.66111999553</v>
+        <v>21.72656781720093</v>
       </c>
       <c r="G19">
-        <v>43937.42945682022</v>
+        <v>18.24058917177187</v>
       </c>
       <c r="H19">
-        <v>5876745450</v>
+        <v>118401578</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>2265234700.78152</v>
@@ -2987,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM19">
         <v>-0.9970442609907236</v>
@@ -3013,22 +2950,22 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>70.30402277742479</v>
+        <v>19.1323529479183</v>
       </c>
       <c r="E20">
-        <v>68.96688168334961</v>
+        <v>20.67266916465759</v>
       </c>
       <c r="F20">
-        <v>70.74276808941683</v>
+        <v>21.1915121312374</v>
       </c>
       <c r="G20">
-        <v>64.95548231095034</v>
+        <v>18.72700649370933</v>
       </c>
       <c r="H20">
-        <v>229140423</v>
+        <v>118401578</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <v>2010310251.8265</v>
@@ -3115,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM20">
         <v>-0.5977765045425684</v>
@@ -3141,22 +3078,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>257.8329964679378</v>
+        <v>22.47240847982615</v>
       </c>
       <c r="E21">
-        <v>253.4349922637939</v>
+        <v>23.89922828674316</v>
       </c>
       <c r="F21">
-        <v>292.4672795755714</v>
+        <v>23.99651212310588</v>
       </c>
       <c r="G21">
-        <v>235.2932249217003</v>
+        <v>22.29405658381432</v>
       </c>
       <c r="H21">
-        <v>80995217</v>
+        <v>118401578</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>2371310645.98428</v>
@@ -3243,7 +3180,7 @@
         <v>3239600</v>
       </c>
       <c r="AL21" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM21">
         <v>-0.6404761207568962</v>
@@ -3269,22 +3206,22 @@
         <v>43921</v>
       </c>
       <c r="D22">
-        <v>14.35987247751827</v>
+        <v>15.72744139116712</v>
       </c>
       <c r="E22">
-        <v>18.78085252571106</v>
+        <v>18.02980926895142</v>
       </c>
       <c r="F22">
-        <v>19.86227483177186</v>
+        <v>19.63498078273409</v>
       </c>
       <c r="G22">
-        <v>13.95212297949352</v>
+        <v>15.24102535921887</v>
       </c>
       <c r="H22">
-        <v>1299391231</v>
+        <v>118401578</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>2706983842.18184</v>
@@ -3371,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM22">
         <v>-0.8540544609923257</v>
@@ -3397,22 +3334,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>1122.682585120727</v>
+        <v>19.82954927464739</v>
       </c>
       <c r="E23">
-        <v>1259.542938354492</v>
+        <v>20.18625461387634</v>
       </c>
       <c r="F23">
-        <v>1293.758026662933</v>
+        <v>21.93735130278338</v>
       </c>
       <c r="G23">
-        <v>1099.159711908674</v>
+        <v>19.47284548169256</v>
       </c>
       <c r="H23">
-        <v>1333460157</v>
+        <v>118401578</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J23">
         <v>3326338925.2028</v>
@@ -3493,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -3513,22 +3450,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>14.77880914739032</v>
+        <v>19.74292004280764</v>
       </c>
       <c r="E24">
-        <v>17.95704768466949</v>
+        <v>17.79690334701538</v>
       </c>
       <c r="F24">
-        <v>20.02290166378595</v>
+        <v>22.10475224477414</v>
       </c>
       <c r="G24">
-        <v>14.67286878005579</v>
+        <v>17.68047551287388</v>
       </c>
       <c r="H24">
-        <v>4500000193</v>
+        <v>118401578</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>3233179515.436</v>
@@ -3615,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM24">
         <v>-0.7879034176071674</v>
@@ -3641,22 +3578,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>37.61124380306016</v>
+        <v>22.33760619062466</v>
       </c>
       <c r="E25">
-        <v>36.16380609130859</v>
+        <v>22.57046182441712</v>
       </c>
       <c r="F25">
-        <v>38.1747476424971</v>
+        <v>23.53515352895454</v>
       </c>
       <c r="G25">
-        <v>35.61134952856651</v>
+        <v>21.95505515677842</v>
       </c>
       <c r="H25">
-        <v>219937482</v>
+        <v>118401578</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J25">
         <v>3679796685.7886</v>
@@ -3743,7 +3680,7 @@
         <v>10644400</v>
       </c>
       <c r="AL25" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM25">
         <v>7.780951338960246</v>
@@ -3769,22 +3706,22 @@
         <v>44286</v>
       </c>
       <c r="D26">
-        <v>2911.416905565497</v>
+        <v>22.64790490709692</v>
       </c>
       <c r="E26">
-        <v>3228.227164550781</v>
+        <v>24.53949006462097</v>
       </c>
       <c r="F26">
-        <v>3247.883275509722</v>
+        <v>24.86327592165528</v>
       </c>
       <c r="G26">
-        <v>2896.940735382299</v>
+        <v>22.51157453314129</v>
       </c>
       <c r="H26">
-        <v>913159452</v>
+        <v>118401578</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>3618565029.2129</v>
@@ -3871,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM26">
         <v>6.340244321121303</v>
@@ -3897,22 +3834,22 @@
         <v>44377</v>
       </c>
       <c r="D27">
-        <v>46.35473723828192</v>
+        <v>22.81832141486733</v>
       </c>
       <c r="E27">
-        <v>46.33250424194337</v>
+        <v>24.16458523750305</v>
       </c>
       <c r="F27">
-        <v>46.89943080679002</v>
+        <v>24.77807199364042</v>
       </c>
       <c r="G27">
-        <v>41.95270573549815</v>
+        <v>22.3070816388263</v>
       </c>
       <c r="H27">
-        <v>219937482</v>
+        <v>118401578</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <v>3649942107.97632</v>
@@ -3993,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -4013,22 +3950,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>59.84004141235351</v>
+        <v>22.4585408978503</v>
       </c>
       <c r="E28">
-        <v>52.33110947036743</v>
+        <v>23.12165264511109</v>
       </c>
       <c r="F28">
-        <v>61.59868194198609</v>
+        <v>24.60492914085108</v>
       </c>
       <c r="G28">
-        <v>50.37578105926514</v>
+        <v>22.21423604437822</v>
       </c>
       <c r="H28">
-        <v>134598631</v>
+        <v>118401578</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J28">
         <v>3562255811.088</v>
@@ -4115,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM28">
         <v>10.24157267027027</v>
@@ -4141,22 +4078,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>113.4567031103399</v>
+        <v>24.06397214896944</v>
       </c>
       <c r="E29">
-        <v>97.69401095581055</v>
+        <v>22.94715195465088</v>
       </c>
       <c r="F29">
-        <v>113.4567031103399</v>
+        <v>24.34317678150136</v>
       </c>
       <c r="G29">
-        <v>93.21203893338271</v>
+        <v>21.90013458265618</v>
       </c>
       <c r="H29">
-        <v>229140423</v>
+        <v>118401578</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J29">
         <v>3765030372.642241</v>
@@ -4243,7 +4180,7 @@
         <v>11685700</v>
       </c>
       <c r="AL29" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM29">
         <v>0.1451565044209741</v>
@@ -4269,22 +4206,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>653.5223021794563</v>
+        <v>21.67889528940097</v>
       </c>
       <c r="E30">
-        <v>656.6947405395508</v>
+        <v>21.49928657531738</v>
       </c>
       <c r="F30">
-        <v>657.7522199929157</v>
+        <v>22.23568624271165</v>
       </c>
       <c r="G30">
-        <v>563.636548643447</v>
+        <v>20.69104307971128</v>
       </c>
       <c r="H30">
-        <v>275900103</v>
+        <v>118401578</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>3281772650</v>
@@ -4371,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM30">
         <v>-2.227298897237928</v>
@@ -4397,22 +4334,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>1146.533268821023</v>
+        <v>21.15802760650335</v>
       </c>
       <c r="E31">
-        <v>1079.284682861328</v>
+        <v>23.79829135322571</v>
       </c>
       <c r="F31">
-        <v>1232.523263982599</v>
+        <v>24.60653486792667</v>
       </c>
       <c r="G31">
-        <v>1079.284682861328</v>
+        <v>20.92453473107561</v>
       </c>
       <c r="H31">
-        <v>1333460157</v>
+        <v>118401578</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>3227818753.41276</v>
@@ -4499,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM31">
         <v>-0.3910303236642259</v>
@@ -4525,22 +4462,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>4431.253348723354</v>
+        <v>21.31000569131642</v>
       </c>
       <c r="E32">
-        <v>4301.953671386719</v>
+        <v>22.32740902519226</v>
       </c>
       <c r="F32">
-        <v>4659.171424028611</v>
+        <v>22.54938803062693</v>
       </c>
       <c r="G32">
-        <v>4131.015114907777</v>
+        <v>20.73655860417761</v>
       </c>
       <c r="H32">
-        <v>933160187</v>
+        <v>118401578</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J32">
         <v>3186717495.94146</v>
@@ -4627,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="AL32" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM32">
         <v>0.5307725127400739</v>
@@ -4653,22 +4590,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>20.44997411727906</v>
+        <v>24.56570222470276</v>
       </c>
       <c r="E33">
-        <v>22.12184097099304</v>
+        <v>25.8420838508606</v>
       </c>
       <c r="F33">
-        <v>22.86232026481629</v>
+        <v>27.02597200946205</v>
       </c>
       <c r="G33">
-        <v>19.76734394073486</v>
+        <v>24.56570222470276</v>
       </c>
       <c r="H33">
-        <v>795535712</v>
+        <v>118401578</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="J33">
         <v>3633351160.46292</v>
@@ -4755,7 +4692,7 @@
         <v>9487400</v>
       </c>
       <c r="AL33" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM33">
         <v>-0.6568609428463856</v>
@@ -4781,22 +4718,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>5375.61069363049</v>
+        <v>27.4432033650825</v>
       </c>
       <c r="E34">
-        <v>5087.3741953125</v>
+        <v>27.48115982818604</v>
       </c>
       <c r="F34">
-        <v>5376.719295547097</v>
+        <v>28.82864775243784</v>
       </c>
       <c r="G34">
-        <v>4887.825850323124</v>
+        <v>27.10158614740033</v>
       </c>
       <c r="H34">
-        <v>933160187</v>
+        <v>118401578</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J34">
         <v>3959338664.81712</v>
@@ -4883,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM34">
         <v>0.3799253150925713</v>
@@ -4909,22 +4846,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>346.9689219983833</v>
+        <v>23.40073867914603</v>
       </c>
       <c r="E35">
-        <v>323.5855497741699</v>
+        <v>22.01529434585571</v>
       </c>
       <c r="F35">
-        <v>360.2120060943994</v>
+        <v>23.85622707831407</v>
       </c>
       <c r="G35">
-        <v>317.8341172066877</v>
+        <v>21.08533660178344</v>
       </c>
       <c r="H35">
-        <v>193969420</v>
+        <v>118401578</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <v>3462816314.26432</v>
@@ -5011,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="AL35" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM35">
         <v>1.774427044518398</v>
@@ -5037,22 +4974,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>1580.773709865663</v>
+        <v>20.97187015932972</v>
       </c>
       <c r="E36">
-        <v>1620.293052612305</v>
+        <v>19.42058025741577</v>
       </c>
       <c r="F36">
-        <v>1992.903998509211</v>
+        <v>21.08968860253361</v>
       </c>
       <c r="G36">
-        <v>1569.482469080908</v>
+        <v>18.81184539189442</v>
       </c>
       <c r="H36">
-        <v>134011000</v>
+        <v>118401578</v>
       </c>
       <c r="I36" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="J36">
         <v>2917641910.3572</v>
@@ -5139,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM36">
         <v>-0.5586959986706842</v>
@@ -5165,22 +5102,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>144.1598878880684</v>
+        <v>21.22714544856549</v>
       </c>
       <c r="E37">
-        <v>152.8968544158936</v>
+        <v>21.1485991973877</v>
       </c>
       <c r="F37">
-        <v>157.4893675024394</v>
+        <v>21.83587842702082</v>
       </c>
       <c r="G37">
-        <v>141.8076302985351</v>
+        <v>20.08822199745194</v>
       </c>
       <c r="H37">
-        <v>229140423</v>
+        <v>118401578</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>2950516748.78376</v>
@@ -5267,7 +5204,7 @@
         <v>12148500</v>
       </c>
       <c r="AL37" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM37">
         <v>-0.4295717532409776</v>
@@ -5293,22 +5230,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>4809.33501228645</v>
+        <v>19.97030324631044</v>
       </c>
       <c r="E38">
-        <v>5268.704003417969</v>
+        <v>18.03834959411621</v>
       </c>
       <c r="F38">
-        <v>5896.545729683295</v>
+        <v>20.05164860199989</v>
       </c>
       <c r="G38">
-        <v>4339.857657046905</v>
+        <v>17.6417912275584</v>
       </c>
       <c r="H38">
-        <v>175134528</v>
+        <v>118401578</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J38">
         <v>2671080622.158</v>
@@ -5395,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM38">
         <v>-0.6865000333641282</v>
@@ -5421,22 +5358,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>3344.812269500415</v>
+        <v>18.50608572052659</v>
       </c>
       <c r="E39">
-        <v>3113.497451416016</v>
+        <v>19.04499794197083</v>
       </c>
       <c r="F39">
-        <v>3488.227456712743</v>
+        <v>19.82794815509586</v>
       </c>
       <c r="G39">
-        <v>2914.566707863432</v>
+        <v>18.19087078936645</v>
       </c>
       <c r="H39">
-        <v>104878138</v>
+        <v>118401578</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J39">
         <v>2520069409.06786</v>
@@ -5523,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM39">
         <v>1.346858808482841</v>
@@ -5549,22 +5486,22 @@
         <v>45565</v>
       </c>
       <c r="D40">
-        <v>36.14421118184682</v>
+        <v>19.65637500315233</v>
       </c>
       <c r="E40">
-        <v>33.2778978099823</v>
+        <v>18.07118350315094</v>
       </c>
       <c r="F40">
-        <v>36.44804188630448</v>
+        <v>20.20590854024821</v>
       </c>
       <c r="G40">
-        <v>33.12885047684772</v>
+        <v>17.94436729625373</v>
       </c>
       <c r="H40">
-        <v>1299391231</v>
+        <v>118401578</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J40">
         <v>2545379680.5346</v>
@@ -5651,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM40">
         <v>-1.06261644813946</v>
@@ -5677,22 +5614,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>2865.882895130199</v>
+        <v>18.02891232748711</v>
       </c>
       <c r="E41">
-        <v>2758.291954589844</v>
+        <v>19.63524033737183</v>
       </c>
       <c r="F41">
-        <v>3191.4870572918</v>
+        <v>19.69864743848755</v>
       </c>
       <c r="G41">
-        <v>2690.906049725095</v>
+        <v>18.02891232748711</v>
       </c>
       <c r="H41">
-        <v>175134528</v>
+        <v>118401578</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J41">
         <v>2335388417.76942</v>
@@ -5773,7 +5710,7 @@
         <v>7751900</v>
       </c>
       <c r="AL41" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AO41">
         <v>0</v>
@@ -5793,22 +5730,22 @@
         <v>45746</v>
       </c>
       <c r="D42">
-        <v>182.4588964691162</v>
+        <v>17.74903493324209</v>
       </c>
       <c r="E42">
-        <v>150.7571035308838</v>
+        <v>17.3962583770752</v>
       </c>
       <c r="F42">
-        <v>186.0456035308838</v>
+        <v>18.07976144332727</v>
       </c>
       <c r="G42">
-        <v>144.625</v>
+        <v>15.67647673975807</v>
       </c>
       <c r="H42">
-        <v>5527428787</v>
+        <v>118401578</v>
       </c>
       <c r="I42" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>2191559291.26173</v>
@@ -5892,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AM42">
         <v>0.08537032883261796</v>
@@ -5918,22 +5855,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>3398.109</v>
+        <v>17.70493746862493</v>
       </c>
       <c r="E43">
-        <v>3499.925</v>
+        <v>16.64661092281341</v>
       </c>
       <c r="F43">
-        <v>3615.625</v>
+        <v>18.7081436286909</v>
       </c>
       <c r="G43">
-        <v>3343.73</v>
+        <v>15.76467108328319</v>
       </c>
       <c r="H43">
-        <v>52985470</v>
+        <v>118401578</v>
       </c>
       <c r="I43" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <v>2208821886.8898</v>
@@ -6014,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="AL43" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AO43">
         <v>0</v>
